--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/Footprint-Jibungoto/data/local/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/Footprint-Jibungoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97479C67-84D1-9C40-BF45-5FFD092C5E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACD6BCD-8B0D-6647-B1A3-9DA790A21185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11080" yWindow="1900" windowWidth="38400" windowHeight="21100" xr2:uid="{23F28536-E1AB-FF42-8505-A9160618B0EE}"/>
   </bookViews>
@@ -37,10 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
-    <t>domainAndDir</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>itemAndType</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -57,18 +53,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mobility</t>
-  </si>
-  <si>
-    <t>private-car-driving-amount</t>
-  </si>
-  <si>
     <t>kgCO2e/year</t>
   </si>
   <si>
-    <t>private-car-driving-intensity</t>
-  </si>
-  <si>
     <t>kgCO2e/km-passenger</t>
   </si>
   <si>
@@ -82,6 +69,19 @@
   <si>
     <t>updatedAt</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dirAndDomain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>baseline_mobility</t>
+  </si>
+  <si>
+    <t>private-car-driving_amount</t>
+  </si>
+  <si>
+    <t>private-car-driving_intensity</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\Thh:mm:ss.000\Z"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\Thh:mm:ss.000\Z"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,12 +454,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -469,75 +469,75 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>4341.7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">NOW()-TIME(9,0,0)</f>
-        <v>44723.384686342593</v>
+        <v>44723.94554212963</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">NOW()-TIME(9,0,0)</f>
-        <v>44723.384686342593</v>
+        <v>44723.94554212963</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0.17</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <f ca="1">NOW()-TIME(9,0,0)</f>
-        <v>44723.384686342593</v>
+        <v>44723.94554212963</v>
       </c>
       <c r="G3" s="1">
         <f ca="1">NOW()-TIME(9,0,0)</f>
-        <v>44723.384686342593</v>
+        <v>44723.94554212963</v>
       </c>
     </row>
   </sheetData>
